--- a/Code/Results/Cases/Case_5_148/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_148/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.025816309075302</v>
+        <v>1.055467568591687</v>
       </c>
       <c r="D2">
-        <v>1.04092919206219</v>
+        <v>1.058801544484407</v>
       </c>
       <c r="E2">
-        <v>1.028445014369402</v>
+        <v>1.051880765516556</v>
       </c>
       <c r="F2">
-        <v>1.045852905335791</v>
+        <v>1.068206579710951</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054507533834598</v>
+        <v>1.048956121735408</v>
       </c>
       <c r="J2">
-        <v>1.047251353885858</v>
+        <v>1.060474275598555</v>
       </c>
       <c r="K2">
-        <v>1.051846312943631</v>
+        <v>1.061532785797125</v>
       </c>
       <c r="L2">
-        <v>1.039521793571004</v>
+        <v>1.054631040917576</v>
       </c>
       <c r="M2">
-        <v>1.056708363701832</v>
+        <v>1.070912382260419</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.031253710494648</v>
+        <v>1.056599591360931</v>
       </c>
       <c r="D3">
-        <v>1.045066295651082</v>
+        <v>1.059682294013484</v>
       </c>
       <c r="E3">
-        <v>1.032900083452656</v>
+        <v>1.052851651317442</v>
       </c>
       <c r="F3">
-        <v>1.050547823576034</v>
+        <v>1.069228665748125</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056400915939023</v>
+        <v>1.049292787907898</v>
       </c>
       <c r="J3">
-        <v>1.050927169223881</v>
+        <v>1.06125710648595</v>
       </c>
       <c r="K3">
-        <v>1.055153274442204</v>
+        <v>1.062227470949572</v>
       </c>
       <c r="L3">
-        <v>1.043128620504888</v>
+        <v>1.055414254920603</v>
       </c>
       <c r="M3">
-        <v>1.060572343839497</v>
+        <v>1.071749889252791</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.034692981038462</v>
+        <v>1.057332223478265</v>
       </c>
       <c r="D4">
-        <v>1.047686346299924</v>
+        <v>1.06025229954466</v>
       </c>
       <c r="E4">
-        <v>1.035723450054541</v>
+        <v>1.053480279486732</v>
       </c>
       <c r="F4">
-        <v>1.053523037405112</v>
+        <v>1.06989043968057</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057589781562827</v>
+        <v>1.049509532388701</v>
       </c>
       <c r="J4">
-        <v>1.05324902630555</v>
+        <v>1.061763214695929</v>
       </c>
       <c r="K4">
-        <v>1.057241388291041</v>
+        <v>1.062676441140067</v>
       </c>
       <c r="L4">
-        <v>1.045409025947</v>
+        <v>1.055920827520811</v>
       </c>
       <c r="M4">
-        <v>1.063015709204911</v>
+        <v>1.072291615656185</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.036120691038298</v>
+        <v>1.057640255550737</v>
       </c>
       <c r="D5">
-        <v>1.048774698495643</v>
+        <v>1.060491953959416</v>
       </c>
       <c r="E5">
-        <v>1.036896738068535</v>
+        <v>1.053744650411985</v>
       </c>
       <c r="F5">
-        <v>1.054759388193754</v>
+        <v>1.07016874884415</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058081166101204</v>
+        <v>1.04960038814321</v>
       </c>
       <c r="J5">
-        <v>1.054212071914925</v>
+        <v>1.061975878321128</v>
       </c>
       <c r="K5">
-        <v>1.058107291550881</v>
+        <v>1.062865059446148</v>
       </c>
       <c r="L5">
-        <v>1.04635538520695</v>
+        <v>1.056133738110966</v>
       </c>
       <c r="M5">
-        <v>1.06402978178744</v>
+        <v>1.072519310263084</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.036359366669293</v>
+        <v>1.05769197747396</v>
       </c>
       <c r="D6">
-        <v>1.048956682797287</v>
+        <v>1.060532194395399</v>
       </c>
       <c r="E6">
-        <v>1.037092953120089</v>
+        <v>1.053789045057851</v>
       </c>
       <c r="F6">
-        <v>1.054966147187671</v>
+        <v>1.070215484001452</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058163185877329</v>
+        <v>1.049615627764163</v>
       </c>
       <c r="J6">
-        <v>1.054373019406628</v>
+        <v>1.062011579366741</v>
       </c>
       <c r="K6">
-        <v>1.05825199269329</v>
+        <v>1.062896721737042</v>
       </c>
       <c r="L6">
-        <v>1.046513573723641</v>
+        <v>1.056169483654162</v>
       </c>
       <c r="M6">
-        <v>1.064199293819346</v>
+        <v>1.07255753842035</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.034712128529683</v>
+        <v>1.057336339285416</v>
       </c>
       <c r="D7">
-        <v>1.047700939798556</v>
+        <v>1.06025550172434</v>
       </c>
       <c r="E7">
-        <v>1.035739180529114</v>
+        <v>1.053483811648346</v>
       </c>
       <c r="F7">
-        <v>1.053539613531406</v>
+        <v>1.069894158070858</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057596380183167</v>
+        <v>1.049510747443641</v>
       </c>
       <c r="J7">
-        <v>1.053261945259831</v>
+        <v>1.061766056727327</v>
       </c>
       <c r="K7">
-        <v>1.057253004883492</v>
+        <v>1.062678961973134</v>
       </c>
       <c r="L7">
-        <v>1.045421719059971</v>
+        <v>1.055923672649002</v>
       </c>
       <c r="M7">
-        <v>1.063029310195213</v>
+        <v>1.072294658308146</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.027670762231859</v>
+        <v>1.055850112817387</v>
       </c>
       <c r="D8">
-        <v>1.042339451610086</v>
+        <v>1.059099176701771</v>
       </c>
       <c r="E8">
-        <v>1.029963261650355</v>
+        <v>1.052208797977714</v>
       </c>
       <c r="F8">
-        <v>1.04745292228328</v>
+        <v>1.068551912250932</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055155091069413</v>
+        <v>1.049070127603188</v>
       </c>
       <c r="J8">
-        <v>1.04850564919658</v>
+        <v>1.060738927208442</v>
       </c>
       <c r="K8">
-        <v>1.052974896254511</v>
+        <v>1.061767669158967</v>
       </c>
       <c r="L8">
-        <v>1.040752099155581</v>
+        <v>1.054895777122226</v>
       </c>
       <c r="M8">
-        <v>1.058026303690082</v>
+        <v>1.071195462320851</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.014619917838659</v>
+        <v>1.053232220787134</v>
       </c>
       <c r="D9">
-        <v>1.032431200906426</v>
+        <v>1.057062373996698</v>
       </c>
       <c r="E9">
-        <v>1.019304046697034</v>
+        <v>1.049965131740276</v>
       </c>
       <c r="F9">
-        <v>1.036219060996182</v>
+        <v>1.066189896155059</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050562358482508</v>
+        <v>1.048285267724917</v>
       </c>
       <c r="J9">
-        <v>1.039666765858829</v>
+        <v>1.058925654216182</v>
       </c>
       <c r="K9">
-        <v>1.045019139731977</v>
+        <v>1.060157740492031</v>
       </c>
       <c r="L9">
-        <v>1.032091505026867</v>
+        <v>1.053082816477077</v>
       </c>
       <c r="M9">
-        <v>1.048750622669878</v>
+        <v>1.069257036717271</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.005430671645986</v>
+        <v>1.051487612693382</v>
       </c>
       <c r="D10">
-        <v>1.025478999271867</v>
+        <v>1.055705048729484</v>
       </c>
       <c r="E10">
-        <v>1.011834154421279</v>
+        <v>1.048471424522321</v>
       </c>
       <c r="F10">
-        <v>1.028345868419058</v>
+        <v>1.064617371978244</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047285355284728</v>
+        <v>1.04775635934882</v>
       </c>
       <c r="J10">
-        <v>1.033430469311963</v>
+        <v>1.057714554322025</v>
       </c>
       <c r="K10">
-        <v>1.039402972278299</v>
+        <v>1.059081689918883</v>
       </c>
       <c r="L10">
-        <v>1.025992977121408</v>
+        <v>1.051873048047128</v>
       </c>
       <c r="M10">
-        <v>1.042221519548415</v>
+        <v>1.067963746180546</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.001321793644611</v>
+        <v>1.050732323654786</v>
       </c>
       <c r="D11">
-        <v>1.022377282082793</v>
+        <v>1.05511744252788</v>
       </c>
       <c r="E11">
-        <v>1.008503451510931</v>
+        <v>1.047825124168229</v>
       </c>
       <c r="F11">
-        <v>1.024835244718633</v>
+        <v>1.063936962874926</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04581050186166</v>
+        <v>1.047525991316725</v>
       </c>
       <c r="J11">
-        <v>1.030639687652157</v>
+        <v>1.057189598627653</v>
       </c>
       <c r="K11">
-        <v>1.036889183972914</v>
+        <v>1.058615091920446</v>
       </c>
       <c r="L11">
-        <v>1.023266767340417</v>
+        <v>1.051348936564866</v>
       </c>
       <c r="M11">
-        <v>1.039303525423477</v>
+        <v>1.067403498088884</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9997747565306514</v>
+        <v>1.050451795459562</v>
       </c>
       <c r="D12">
-        <v>1.02121058936727</v>
+        <v>1.054899198188402</v>
       </c>
       <c r="E12">
-        <v>1.007250906032531</v>
+        <v>1.047585132188328</v>
       </c>
       <c r="F12">
-        <v>1.023515028122377</v>
+        <v>1.063684304329437</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045253826659464</v>
+        <v>1.047440219868685</v>
       </c>
       <c r="J12">
-        <v>1.029588652124846</v>
+        <v>1.056994525082709</v>
       </c>
       <c r="K12">
-        <v>1.035942405705804</v>
+        <v>1.058441677207332</v>
       </c>
       <c r="L12">
-        <v>1.022240496205724</v>
+        <v>1.051154216924433</v>
       </c>
       <c r="M12">
-        <v>1.038205170571266</v>
+        <v>1.067195360109713</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.000107565437549</v>
+        <v>1.050511968829176</v>
       </c>
       <c r="D13">
-        <v>1.021461522966606</v>
+        <v>1.054946011490056</v>
       </c>
       <c r="E13">
-        <v>1.007520292657562</v>
+        <v>1.047636607991911</v>
       </c>
       <c r="F13">
-        <v>1.023798969242873</v>
+        <v>1.063738497021003</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045373643491686</v>
+        <v>1.047458627300754</v>
       </c>
       <c r="J13">
-        <v>1.029814769211131</v>
+        <v>1.057036372718537</v>
       </c>
       <c r="K13">
-        <v>1.036146095634495</v>
+        <v>1.058478879754021</v>
       </c>
       <c r="L13">
-        <v>1.022461265274573</v>
+        <v>1.051195986819909</v>
       </c>
       <c r="M13">
-        <v>1.038441440886593</v>
+        <v>1.067240008084202</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.001194347675964</v>
+        <v>1.050709134708377</v>
       </c>
       <c r="D14">
-        <v>1.022281145425424</v>
+        <v>1.055099401999578</v>
       </c>
       <c r="E14">
-        <v>1.008400234944881</v>
+        <v>1.047805284872704</v>
       </c>
       <c r="F14">
-        <v>1.024726451861099</v>
+        <v>1.063916076497048</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04576467018113</v>
+        <v>1.047518905553658</v>
       </c>
       <c r="J14">
-        <v>1.030553107833861</v>
+        <v>1.05717347545434</v>
       </c>
       <c r="K14">
-        <v>1.036811193564269</v>
+        <v>1.058600759435499</v>
       </c>
       <c r="L14">
-        <v>1.023182218403355</v>
+        <v>1.051332841822121</v>
       </c>
       <c r="M14">
-        <v>1.039213035556614</v>
+        <v>1.067386294091895</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.001861150713706</v>
+        <v>1.050830617707934</v>
       </c>
       <c r="D15">
-        <v>1.022784183692335</v>
+        <v>1.055193913443263</v>
       </c>
       <c r="E15">
-        <v>1.008940330318432</v>
+        <v>1.047909221903554</v>
       </c>
       <c r="F15">
-        <v>1.025295725591928</v>
+        <v>1.064025499100903</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046004407889642</v>
+        <v>1.047556018138039</v>
       </c>
       <c r="J15">
-        <v>1.031006086506818</v>
+        <v>1.057257938150201</v>
       </c>
       <c r="K15">
-        <v>1.037219230746442</v>
+        <v>1.058675840348903</v>
       </c>
       <c r="L15">
-        <v>1.023624589877361</v>
+        <v>1.051417157228103</v>
       </c>
       <c r="M15">
-        <v>1.03968649542359</v>
+        <v>1.06747642083702</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.005700519201175</v>
+        <v>1.051537741563889</v>
       </c>
       <c r="D16">
-        <v>1.025682854043737</v>
+        <v>1.055744048847023</v>
       </c>
       <c r="E16">
-        <v>1.012053098551932</v>
+        <v>1.048514327554379</v>
       </c>
       <c r="F16">
-        <v>1.028576638025444</v>
+        <v>1.064662539107706</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047382021171317</v>
+        <v>1.047771619723558</v>
       </c>
       <c r="J16">
-        <v>1.033613709906622</v>
+        <v>1.057749382470934</v>
       </c>
       <c r="K16">
-        <v>1.039568016311945</v>
+        <v>1.059112642553408</v>
       </c>
       <c r="L16">
-        <v>1.026172039287776</v>
+        <v>1.051907825817623</v>
       </c>
       <c r="M16">
-        <v>1.042413193582851</v>
+        <v>1.068000922834174</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.008073195947362</v>
+        <v>1.05198133791604</v>
       </c>
       <c r="D17">
-        <v>1.027476073108756</v>
+        <v>1.05608916764325</v>
       </c>
       <c r="E17">
-        <v>1.013979275067342</v>
+        <v>1.048894024063793</v>
       </c>
       <c r="F17">
-        <v>1.030606839581672</v>
+        <v>1.065062272426919</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048230890724686</v>
+        <v>1.047906500143221</v>
       </c>
       <c r="J17">
-        <v>1.035224629641072</v>
+        <v>1.058057507350565</v>
       </c>
       <c r="K17">
-        <v>1.041018908038897</v>
+        <v>1.05938645997335</v>
       </c>
       <c r="L17">
-        <v>1.027746557562517</v>
+        <v>1.052215535845268</v>
       </c>
       <c r="M17">
-        <v>1.044098689595678</v>
+        <v>1.068329863466239</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.009444701054213</v>
+        <v>1.052240093518147</v>
       </c>
       <c r="D18">
-        <v>1.02851327273356</v>
+        <v>1.056290481616669</v>
       </c>
       <c r="E18">
-        <v>1.015093566482982</v>
+        <v>1.04911554138817</v>
       </c>
       <c r="F18">
-        <v>1.031781300000192</v>
+        <v>1.065295478765541</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048720661923888</v>
+        <v>1.047985043629899</v>
       </c>
       <c r="J18">
-        <v>1.036155586843698</v>
+        <v>1.058237179156596</v>
       </c>
       <c r="K18">
-        <v>1.041857334214014</v>
+        <v>1.05954610927382</v>
       </c>
       <c r="L18">
-        <v>1.028656753897129</v>
+        <v>1.052394991494931</v>
       </c>
       <c r="M18">
-        <v>1.0450731050263</v>
+        <v>1.068521705364476</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.009910277130784</v>
+        <v>1.052328324784786</v>
       </c>
       <c r="D19">
-        <v>1.028865470731995</v>
+        <v>1.056359126516276</v>
       </c>
       <c r="E19">
-        <v>1.015471974867686</v>
+        <v>1.049191081007347</v>
       </c>
       <c r="F19">
-        <v>1.032180139794328</v>
+        <v>1.065375004355414</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048886765215493</v>
+        <v>1.048011802885298</v>
       </c>
       <c r="J19">
-        <v>1.036471573533597</v>
+        <v>1.058298433749892</v>
       </c>
       <c r="K19">
-        <v>1.042141904910659</v>
+        <v>1.059600534747497</v>
       </c>
       <c r="L19">
-        <v>1.02896574046202</v>
+        <v>1.052456176760596</v>
       </c>
       <c r="M19">
-        <v>1.045403903020151</v>
+        <v>1.068587114493644</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.007819925689462</v>
+        <v>1.051933742850694</v>
       </c>
       <c r="D20">
-        <v>1.027284589135472</v>
+        <v>1.056052138419005</v>
       </c>
       <c r="E20">
-        <v>1.013773574107965</v>
+        <v>1.048853281384091</v>
       </c>
       <c r="F20">
-        <v>1.030390030486466</v>
+        <v>1.065019379792397</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048140372619254</v>
+        <v>1.047892042195805</v>
       </c>
       <c r="J20">
-        <v>1.035052695239694</v>
+        <v>1.058024453870645</v>
       </c>
       <c r="K20">
-        <v>1.040864058612939</v>
+        <v>1.059357088552259</v>
       </c>
       <c r="L20">
-        <v>1.027578479642315</v>
+        <v>1.052182524203586</v>
       </c>
       <c r="M20">
-        <v>1.043918758114803</v>
+        <v>1.068294573692054</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.000874903086157</v>
+        <v>1.050651073732421</v>
       </c>
       <c r="D21">
-        <v>1.022040196610662</v>
+        <v>1.055054231799238</v>
       </c>
       <c r="E21">
-        <v>1.008141546069083</v>
+        <v>1.047755611727881</v>
       </c>
       <c r="F21">
-        <v>1.024453787131558</v>
+        <v>1.063863781678497</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045649770664116</v>
+        <v>1.047501160701462</v>
       </c>
       <c r="J21">
-        <v>1.03033609045031</v>
+        <v>1.05713310437137</v>
       </c>
       <c r="K21">
-        <v>1.036615705113352</v>
+        <v>1.058564871653206</v>
       </c>
       <c r="L21">
-        <v>1.022970298749399</v>
+        <v>1.051292542576423</v>
       </c>
       <c r="M21">
-        <v>1.038986226966183</v>
+        <v>1.067343217528105</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.996387120967288</v>
+        <v>1.049844722755848</v>
       </c>
       <c r="D22">
-        <v>1.018658028112196</v>
+        <v>1.054426916904261</v>
       </c>
       <c r="E22">
-        <v>1.004511002148709</v>
+        <v>1.047065884109383</v>
       </c>
       <c r="F22">
-        <v>1.020627082602536</v>
+        <v>1.063137649169859</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04403238059089</v>
+        <v>1.047254226319575</v>
       </c>
       <c r="J22">
-        <v>1.027286709960791</v>
+        <v>1.056572205161164</v>
       </c>
       <c r="K22">
-        <v>1.033868711094992</v>
+        <v>1.05806619804444</v>
       </c>
       <c r="L22">
-        <v>1.019993621773449</v>
+        <v>1.050732736773057</v>
       </c>
       <c r="M22">
-        <v>1.03580069653544</v>
+        <v>1.066744848638753</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9987781305948298</v>
+        <v>1.050272174163859</v>
       </c>
       <c r="D23">
-        <v>1.020459321288568</v>
+        <v>1.054759458088961</v>
       </c>
       <c r="E23">
-        <v>1.006444430949342</v>
+        <v>1.047431481902834</v>
       </c>
       <c r="F23">
-        <v>1.022664979472603</v>
+        <v>1.063522544266395</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044894827639087</v>
+        <v>1.047385242001423</v>
       </c>
       <c r="J23">
-        <v>1.02891148933565</v>
+        <v>1.056869593316435</v>
       </c>
       <c r="K23">
-        <v>1.035332398896239</v>
+        <v>1.058330608945361</v>
       </c>
       <c r="L23">
-        <v>1.021579415326458</v>
+        <v>1.051029523134934</v>
       </c>
       <c r="M23">
-        <v>1.037497689270912</v>
+        <v>1.06706207558698</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.007934405955362</v>
+        <v>1.05195524897044</v>
       </c>
       <c r="D24">
-        <v>1.027371139493068</v>
+        <v>1.056068870294288</v>
       </c>
       <c r="E24">
-        <v>1.013866549925924</v>
+        <v>1.048871691102634</v>
       </c>
       <c r="F24">
-        <v>1.030488027156419</v>
+        <v>1.065038760977162</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048181290385638</v>
+        <v>1.047898575521437</v>
       </c>
       <c r="J24">
-        <v>1.035130411711353</v>
+        <v>1.058039389476642</v>
       </c>
       <c r="K24">
-        <v>1.040934052621747</v>
+        <v>1.05937036043007</v>
       </c>
       <c r="L24">
-        <v>1.027654452082149</v>
+        <v>1.052197440824929</v>
       </c>
       <c r="M24">
-        <v>1.044000088248569</v>
+        <v>1.068310519694776</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.018075611496963</v>
+        <v>1.053908890676412</v>
       </c>
       <c r="D25">
-        <v>1.035050948344735</v>
+        <v>1.05758884146896</v>
       </c>
       <c r="E25">
-        <v>1.022120696054182</v>
+        <v>1.050544808758573</v>
       </c>
       <c r="F25">
-        <v>1.039187673538526</v>
+        <v>1.066800154908182</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051786088014448</v>
+        <v>1.048489171952858</v>
       </c>
       <c r="J25">
-        <v>1.042009604617689</v>
+        <v>1.059394825114732</v>
       </c>
       <c r="K25">
-        <v>1.047128462674095</v>
+        <v>1.060574433063002</v>
       </c>
       <c r="L25">
-        <v>1.034385054428549</v>
+        <v>1.053551709064183</v>
       </c>
       <c r="M25">
-        <v>1.05120665217608</v>
+        <v>1.069758343873268</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_148/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_148/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.055467568591687</v>
+        <v>1.025816309075302</v>
       </c>
       <c r="D2">
-        <v>1.058801544484407</v>
+        <v>1.04092919206219</v>
       </c>
       <c r="E2">
-        <v>1.051880765516556</v>
+        <v>1.028445014369403</v>
       </c>
       <c r="F2">
-        <v>1.068206579710951</v>
+        <v>1.045852905335791</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048956121735408</v>
+        <v>1.054507533834598</v>
       </c>
       <c r="J2">
-        <v>1.060474275598555</v>
+        <v>1.047251353885858</v>
       </c>
       <c r="K2">
-        <v>1.061532785797125</v>
+        <v>1.051846312943631</v>
       </c>
       <c r="L2">
-        <v>1.054631040917576</v>
+        <v>1.039521793571004</v>
       </c>
       <c r="M2">
-        <v>1.070912382260419</v>
+        <v>1.056708363701832</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.056599591360931</v>
+        <v>1.031253710494648</v>
       </c>
       <c r="D3">
-        <v>1.059682294013484</v>
+        <v>1.045066295651082</v>
       </c>
       <c r="E3">
-        <v>1.052851651317442</v>
+        <v>1.032900083452655</v>
       </c>
       <c r="F3">
-        <v>1.069228665748125</v>
+        <v>1.050547823576034</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049292787907898</v>
+        <v>1.056400915939023</v>
       </c>
       <c r="J3">
-        <v>1.06125710648595</v>
+        <v>1.050927169223881</v>
       </c>
       <c r="K3">
-        <v>1.062227470949572</v>
+        <v>1.055153274442204</v>
       </c>
       <c r="L3">
-        <v>1.055414254920603</v>
+        <v>1.043128620504888</v>
       </c>
       <c r="M3">
-        <v>1.071749889252791</v>
+        <v>1.060572343839497</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.057332223478265</v>
+        <v>1.034692981038462</v>
       </c>
       <c r="D4">
-        <v>1.06025229954466</v>
+        <v>1.047686346299924</v>
       </c>
       <c r="E4">
-        <v>1.053480279486732</v>
+        <v>1.035723450054541</v>
       </c>
       <c r="F4">
-        <v>1.06989043968057</v>
+        <v>1.053523037405112</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049509532388701</v>
+        <v>1.057589781562827</v>
       </c>
       <c r="J4">
-        <v>1.061763214695929</v>
+        <v>1.05324902630555</v>
       </c>
       <c r="K4">
-        <v>1.062676441140067</v>
+        <v>1.057241388291041</v>
       </c>
       <c r="L4">
-        <v>1.055920827520811</v>
+        <v>1.045409025947</v>
       </c>
       <c r="M4">
-        <v>1.072291615656185</v>
+        <v>1.063015709204911</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057640255550737</v>
+        <v>1.036120691038298</v>
       </c>
       <c r="D5">
-        <v>1.060491953959416</v>
+        <v>1.048774698495643</v>
       </c>
       <c r="E5">
-        <v>1.053744650411985</v>
+        <v>1.036896738068535</v>
       </c>
       <c r="F5">
-        <v>1.07016874884415</v>
+        <v>1.054759388193754</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04960038814321</v>
+        <v>1.058081166101204</v>
       </c>
       <c r="J5">
-        <v>1.061975878321128</v>
+        <v>1.054212071914925</v>
       </c>
       <c r="K5">
-        <v>1.062865059446148</v>
+        <v>1.058107291550881</v>
       </c>
       <c r="L5">
-        <v>1.056133738110966</v>
+        <v>1.046355385206949</v>
       </c>
       <c r="M5">
-        <v>1.072519310263084</v>
+        <v>1.064029781787439</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.05769197747396</v>
+        <v>1.036359366669293</v>
       </c>
       <c r="D6">
-        <v>1.060532194395399</v>
+        <v>1.048956682797288</v>
       </c>
       <c r="E6">
-        <v>1.053789045057851</v>
+        <v>1.037092953120089</v>
       </c>
       <c r="F6">
-        <v>1.070215484001452</v>
+        <v>1.054966147187671</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049615627764163</v>
+        <v>1.058163185877329</v>
       </c>
       <c r="J6">
-        <v>1.062011579366741</v>
+        <v>1.054373019406629</v>
       </c>
       <c r="K6">
-        <v>1.062896721737042</v>
+        <v>1.05825199269329</v>
       </c>
       <c r="L6">
-        <v>1.056169483654162</v>
+        <v>1.046513573723642</v>
       </c>
       <c r="M6">
-        <v>1.07255753842035</v>
+        <v>1.064199293819347</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.057336339285416</v>
+        <v>1.034712128529682</v>
       </c>
       <c r="D7">
-        <v>1.06025550172434</v>
+        <v>1.047700939798556</v>
       </c>
       <c r="E7">
-        <v>1.053483811648346</v>
+        <v>1.035739180529115</v>
       </c>
       <c r="F7">
-        <v>1.069894158070858</v>
+        <v>1.053539613531406</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049510747443641</v>
+        <v>1.057596380183167</v>
       </c>
       <c r="J7">
-        <v>1.061766056727327</v>
+        <v>1.053261945259831</v>
       </c>
       <c r="K7">
-        <v>1.062678961973134</v>
+        <v>1.057253004883492</v>
       </c>
       <c r="L7">
-        <v>1.055923672649002</v>
+        <v>1.045421719059971</v>
       </c>
       <c r="M7">
-        <v>1.072294658308146</v>
+        <v>1.063029310195213</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055850112817387</v>
+        <v>1.027670762231861</v>
       </c>
       <c r="D8">
-        <v>1.059099176701771</v>
+        <v>1.042339451610087</v>
       </c>
       <c r="E8">
-        <v>1.052208797977714</v>
+        <v>1.029963261650356</v>
       </c>
       <c r="F8">
-        <v>1.068551912250932</v>
+        <v>1.047452922283281</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049070127603188</v>
+        <v>1.055155091069414</v>
       </c>
       <c r="J8">
-        <v>1.060738927208442</v>
+        <v>1.048505649196581</v>
       </c>
       <c r="K8">
-        <v>1.061767669158967</v>
+        <v>1.052974896254512</v>
       </c>
       <c r="L8">
-        <v>1.054895777122226</v>
+        <v>1.040752099155582</v>
       </c>
       <c r="M8">
-        <v>1.071195462320851</v>
+        <v>1.058026303690084</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.053232220787134</v>
+        <v>1.014619917838659</v>
       </c>
       <c r="D9">
-        <v>1.057062373996698</v>
+        <v>1.032431200906425</v>
       </c>
       <c r="E9">
-        <v>1.049965131740276</v>
+        <v>1.019304046697033</v>
       </c>
       <c r="F9">
-        <v>1.066189896155059</v>
+        <v>1.036219060996181</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048285267724917</v>
+        <v>1.050562358482508</v>
       </c>
       <c r="J9">
-        <v>1.058925654216182</v>
+        <v>1.039666765858828</v>
       </c>
       <c r="K9">
-        <v>1.060157740492031</v>
+        <v>1.045019139731976</v>
       </c>
       <c r="L9">
-        <v>1.053082816477077</v>
+        <v>1.032091505026866</v>
       </c>
       <c r="M9">
-        <v>1.069257036717271</v>
+        <v>1.048750622669877</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.051487612693382</v>
+        <v>1.005430671645986</v>
       </c>
       <c r="D10">
-        <v>1.055705048729484</v>
+        <v>1.025478999271867</v>
       </c>
       <c r="E10">
-        <v>1.048471424522321</v>
+        <v>1.011834154421278</v>
       </c>
       <c r="F10">
-        <v>1.064617371978244</v>
+        <v>1.028345868419058</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04775635934882</v>
+        <v>1.047285355284728</v>
       </c>
       <c r="J10">
-        <v>1.057714554322025</v>
+        <v>1.033430469311963</v>
       </c>
       <c r="K10">
-        <v>1.059081689918883</v>
+        <v>1.039402972278298</v>
       </c>
       <c r="L10">
-        <v>1.051873048047128</v>
+        <v>1.025992977121408</v>
       </c>
       <c r="M10">
-        <v>1.067963746180546</v>
+        <v>1.042221519548414</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.050732323654786</v>
+        <v>1.00132179364461</v>
       </c>
       <c r="D11">
-        <v>1.05511744252788</v>
+        <v>1.022377282082791</v>
       </c>
       <c r="E11">
-        <v>1.047825124168229</v>
+        <v>1.00850345151093</v>
       </c>
       <c r="F11">
-        <v>1.063936962874926</v>
+        <v>1.024835244718632</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047525991316725</v>
+        <v>1.045810501861659</v>
       </c>
       <c r="J11">
-        <v>1.057189598627653</v>
+        <v>1.030639687652155</v>
       </c>
       <c r="K11">
-        <v>1.058615091920446</v>
+        <v>1.036889183972913</v>
       </c>
       <c r="L11">
-        <v>1.051348936564866</v>
+        <v>1.023266767340415</v>
       </c>
       <c r="M11">
-        <v>1.067403498088884</v>
+        <v>1.039303525423476</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.050451795459562</v>
+        <v>0.9997747565306503</v>
       </c>
       <c r="D12">
-        <v>1.054899198188402</v>
+        <v>1.021210589367269</v>
       </c>
       <c r="E12">
-        <v>1.047585132188328</v>
+        <v>1.007250906032529</v>
       </c>
       <c r="F12">
-        <v>1.063684304329437</v>
+        <v>1.023515028122376</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047440219868685</v>
+        <v>1.045253826659463</v>
       </c>
       <c r="J12">
-        <v>1.056994525082709</v>
+        <v>1.029588652124845</v>
       </c>
       <c r="K12">
-        <v>1.058441677207332</v>
+        <v>1.035942405705803</v>
       </c>
       <c r="L12">
-        <v>1.051154216924433</v>
+        <v>1.022240496205723</v>
       </c>
       <c r="M12">
-        <v>1.067195360109713</v>
+        <v>1.038205170571265</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.050511968829176</v>
+        <v>1.00010756543755</v>
       </c>
       <c r="D13">
-        <v>1.054946011490056</v>
+        <v>1.021461522966606</v>
       </c>
       <c r="E13">
-        <v>1.047636607991911</v>
+        <v>1.007520292657562</v>
       </c>
       <c r="F13">
-        <v>1.063738497021003</v>
+        <v>1.023798969242873</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047458627300754</v>
+        <v>1.045373643491686</v>
       </c>
       <c r="J13">
-        <v>1.057036372718537</v>
+        <v>1.029814769211131</v>
       </c>
       <c r="K13">
-        <v>1.058478879754021</v>
+        <v>1.036146095634495</v>
       </c>
       <c r="L13">
-        <v>1.051195986819909</v>
+        <v>1.022461265274573</v>
       </c>
       <c r="M13">
-        <v>1.067240008084202</v>
+        <v>1.038441440886593</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.050709134708377</v>
+        <v>1.001194347675964</v>
       </c>
       <c r="D14">
-        <v>1.055099401999578</v>
+        <v>1.022281145425424</v>
       </c>
       <c r="E14">
-        <v>1.047805284872704</v>
+        <v>1.008400234944881</v>
       </c>
       <c r="F14">
-        <v>1.063916076497048</v>
+        <v>1.0247264518611</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047518905553658</v>
+        <v>1.04576467018113</v>
       </c>
       <c r="J14">
-        <v>1.05717347545434</v>
+        <v>1.030553107833861</v>
       </c>
       <c r="K14">
-        <v>1.058600759435499</v>
+        <v>1.036811193564269</v>
       </c>
       <c r="L14">
-        <v>1.051332841822121</v>
+        <v>1.023182218403355</v>
       </c>
       <c r="M14">
-        <v>1.067386294091895</v>
+        <v>1.039213035556615</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050830617707934</v>
+        <v>1.001861150713707</v>
       </c>
       <c r="D15">
-        <v>1.055193913443263</v>
+        <v>1.022784183692335</v>
       </c>
       <c r="E15">
-        <v>1.047909221903554</v>
+        <v>1.008940330318433</v>
       </c>
       <c r="F15">
-        <v>1.064025499100903</v>
+        <v>1.025295725591928</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047556018138039</v>
+        <v>1.046004407889643</v>
       </c>
       <c r="J15">
-        <v>1.057257938150201</v>
+        <v>1.031006086506818</v>
       </c>
       <c r="K15">
-        <v>1.058675840348903</v>
+        <v>1.037219230746443</v>
       </c>
       <c r="L15">
-        <v>1.051417157228103</v>
+        <v>1.023624589877361</v>
       </c>
       <c r="M15">
-        <v>1.06747642083702</v>
+        <v>1.039686495423591</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.051537741563889</v>
+        <v>1.005700519201176</v>
       </c>
       <c r="D16">
-        <v>1.055744048847023</v>
+        <v>1.025682854043737</v>
       </c>
       <c r="E16">
-        <v>1.048514327554379</v>
+        <v>1.012053098551932</v>
       </c>
       <c r="F16">
-        <v>1.064662539107706</v>
+        <v>1.028576638025444</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047771619723558</v>
+        <v>1.047382021171318</v>
       </c>
       <c r="J16">
-        <v>1.057749382470934</v>
+        <v>1.033613709906623</v>
       </c>
       <c r="K16">
-        <v>1.059112642553408</v>
+        <v>1.039568016311945</v>
       </c>
       <c r="L16">
-        <v>1.051907825817623</v>
+        <v>1.026172039287776</v>
       </c>
       <c r="M16">
-        <v>1.068000922834174</v>
+        <v>1.042413193582851</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.05198133791604</v>
+        <v>1.008073195947363</v>
       </c>
       <c r="D17">
-        <v>1.05608916764325</v>
+        <v>1.027476073108758</v>
       </c>
       <c r="E17">
-        <v>1.048894024063793</v>
+        <v>1.013979275067343</v>
       </c>
       <c r="F17">
-        <v>1.065062272426919</v>
+        <v>1.030606839581673</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047906500143221</v>
+        <v>1.048230890724687</v>
       </c>
       <c r="J17">
-        <v>1.058057507350565</v>
+        <v>1.035224629641073</v>
       </c>
       <c r="K17">
-        <v>1.05938645997335</v>
+        <v>1.041018908038898</v>
       </c>
       <c r="L17">
-        <v>1.052215535845268</v>
+        <v>1.027746557562518</v>
       </c>
       <c r="M17">
-        <v>1.068329863466239</v>
+        <v>1.044098689595679</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.052240093518147</v>
+        <v>1.009444701054212</v>
       </c>
       <c r="D18">
-        <v>1.056290481616669</v>
+        <v>1.02851327273356</v>
       </c>
       <c r="E18">
-        <v>1.04911554138817</v>
+        <v>1.015093566482982</v>
       </c>
       <c r="F18">
-        <v>1.065295478765541</v>
+        <v>1.031781300000192</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047985043629899</v>
+        <v>1.048720661923887</v>
       </c>
       <c r="J18">
-        <v>1.058237179156596</v>
+        <v>1.036155586843698</v>
       </c>
       <c r="K18">
-        <v>1.05954610927382</v>
+        <v>1.041857334214013</v>
       </c>
       <c r="L18">
-        <v>1.052394991494931</v>
+        <v>1.028656753897129</v>
       </c>
       <c r="M18">
-        <v>1.068521705364476</v>
+        <v>1.045073105026299</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.052328324784786</v>
+        <v>1.009910277130784</v>
       </c>
       <c r="D19">
-        <v>1.056359126516276</v>
+        <v>1.028865470731996</v>
       </c>
       <c r="E19">
-        <v>1.049191081007347</v>
+        <v>1.015471974867686</v>
       </c>
       <c r="F19">
-        <v>1.065375004355414</v>
+        <v>1.032180139794328</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048011802885298</v>
+        <v>1.048886765215493</v>
       </c>
       <c r="J19">
-        <v>1.058298433749892</v>
+        <v>1.036471573533597</v>
       </c>
       <c r="K19">
-        <v>1.059600534747497</v>
+        <v>1.04214190491066</v>
       </c>
       <c r="L19">
-        <v>1.052456176760596</v>
+        <v>1.02896574046202</v>
       </c>
       <c r="M19">
-        <v>1.068587114493644</v>
+        <v>1.045403903020151</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.051933742850694</v>
+        <v>1.00781992568946</v>
       </c>
       <c r="D20">
-        <v>1.056052138419005</v>
+        <v>1.027284589135471</v>
       </c>
       <c r="E20">
-        <v>1.048853281384091</v>
+        <v>1.013773574107963</v>
       </c>
       <c r="F20">
-        <v>1.065019379792397</v>
+        <v>1.030390030486465</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047892042195805</v>
+        <v>1.048140372619254</v>
       </c>
       <c r="J20">
-        <v>1.058024453870645</v>
+        <v>1.035052695239692</v>
       </c>
       <c r="K20">
-        <v>1.059357088552259</v>
+        <v>1.040864058612938</v>
       </c>
       <c r="L20">
-        <v>1.052182524203586</v>
+        <v>1.027578479642313</v>
       </c>
       <c r="M20">
-        <v>1.068294573692054</v>
+        <v>1.043918758114802</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.050651073732421</v>
+        <v>1.000874903086157</v>
       </c>
       <c r="D21">
-        <v>1.055054231799238</v>
+        <v>1.022040196610662</v>
       </c>
       <c r="E21">
-        <v>1.047755611727881</v>
+        <v>1.008141546069083</v>
       </c>
       <c r="F21">
-        <v>1.063863781678497</v>
+        <v>1.024453787131558</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047501160701462</v>
+        <v>1.045649770664116</v>
       </c>
       <c r="J21">
-        <v>1.05713310437137</v>
+        <v>1.030336090450311</v>
       </c>
       <c r="K21">
-        <v>1.058564871653206</v>
+        <v>1.036615705113352</v>
       </c>
       <c r="L21">
-        <v>1.051292542576423</v>
+        <v>1.0229702987494</v>
       </c>
       <c r="M21">
-        <v>1.067343217528105</v>
+        <v>1.038986226966183</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049844722755848</v>
+        <v>0.9963871209672885</v>
       </c>
       <c r="D22">
-        <v>1.054426916904261</v>
+        <v>1.018658028112196</v>
       </c>
       <c r="E22">
-        <v>1.047065884109383</v>
+        <v>1.004511002148709</v>
       </c>
       <c r="F22">
-        <v>1.063137649169859</v>
+        <v>1.020627082602537</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047254226319575</v>
+        <v>1.04403238059089</v>
       </c>
       <c r="J22">
-        <v>1.056572205161164</v>
+        <v>1.027286709960792</v>
       </c>
       <c r="K22">
-        <v>1.05806619804444</v>
+        <v>1.033868711094993</v>
       </c>
       <c r="L22">
-        <v>1.050732736773057</v>
+        <v>1.01999362177345</v>
       </c>
       <c r="M22">
-        <v>1.066744848638753</v>
+        <v>1.035800696535441</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.050272174163859</v>
+        <v>0.9987781305948299</v>
       </c>
       <c r="D23">
-        <v>1.054759458088961</v>
+        <v>1.020459321288568</v>
       </c>
       <c r="E23">
-        <v>1.047431481902834</v>
+        <v>1.006444430949342</v>
       </c>
       <c r="F23">
-        <v>1.063522544266395</v>
+        <v>1.022664979472603</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047385242001423</v>
+        <v>1.044894827639087</v>
       </c>
       <c r="J23">
-        <v>1.056869593316435</v>
+        <v>1.02891148933565</v>
       </c>
       <c r="K23">
-        <v>1.058330608945361</v>
+        <v>1.035332398896239</v>
       </c>
       <c r="L23">
-        <v>1.051029523134934</v>
+        <v>1.021579415326458</v>
       </c>
       <c r="M23">
-        <v>1.06706207558698</v>
+        <v>1.037497689270912</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.05195524897044</v>
+        <v>1.007934405955362</v>
       </c>
       <c r="D24">
-        <v>1.056068870294288</v>
+        <v>1.027371139493069</v>
       </c>
       <c r="E24">
-        <v>1.048871691102634</v>
+        <v>1.013866549925924</v>
       </c>
       <c r="F24">
-        <v>1.065038760977162</v>
+        <v>1.030488027156419</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047898575521437</v>
+        <v>1.048181290385638</v>
       </c>
       <c r="J24">
-        <v>1.058039389476642</v>
+        <v>1.035130411711353</v>
       </c>
       <c r="K24">
-        <v>1.05937036043007</v>
+        <v>1.040934052621748</v>
       </c>
       <c r="L24">
-        <v>1.052197440824929</v>
+        <v>1.027654452082149</v>
       </c>
       <c r="M24">
-        <v>1.068310519694776</v>
+        <v>1.044000088248569</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.053908890676412</v>
+        <v>1.018075611496961</v>
       </c>
       <c r="D25">
-        <v>1.05758884146896</v>
+        <v>1.035050948344732</v>
       </c>
       <c r="E25">
-        <v>1.050544808758573</v>
+        <v>1.022120696054179</v>
       </c>
       <c r="F25">
-        <v>1.066800154908182</v>
+        <v>1.039187673538523</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048489171952858</v>
+        <v>1.051786088014446</v>
       </c>
       <c r="J25">
-        <v>1.059394825114732</v>
+        <v>1.042009604617687</v>
       </c>
       <c r="K25">
-        <v>1.060574433063002</v>
+        <v>1.047128462674092</v>
       </c>
       <c r="L25">
-        <v>1.053551709064183</v>
+        <v>1.034385054428547</v>
       </c>
       <c r="M25">
-        <v>1.069758343873268</v>
+        <v>1.051206652176078</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
